--- a/Task 3/Planes_Data/Jetstar_FC10.xlsx
+++ b/Task 3/Planes_Data/Jetstar_FC10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4th year\Second term\Design of Control Systems for Aeronautical and Space Vehicles _ AER4420\Project\Autopilot-project\Task 3\Planes_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D031BA-DE09-4D04-BCBE-54AB17B5094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59D518-0615-4975-90C4-D348F4EB0D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="C9CriiYXP/KWcHV2RkWgeQtHB6IAmTLYCfHkfyduwJM="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -456,11 +453,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,6 +491,14 @@
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -545,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -702,57 +714,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{31B9FB1A-208A-4731-8414-8BD9E2AD44F7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{66AA7CF9-0D4C-465F-B587-B885100E8197}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1249,11 +1275,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1381,7 +1407,7 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4">
@@ -1398,7 +1424,7 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4">
         <v>135876</v>
       </c>
@@ -1413,7 +1439,7 @@
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4">
         <v>243518</v>
       </c>
@@ -1429,7 +1455,7 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="4">
         <v>5061</v>
       </c>
@@ -1538,12 +1564,12 @@
       <c r="E18" s="4">
         <v>22.2</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1558,10 +1584,10 @@
       <c r="E19" s="4">
         <v>-2.4</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="27"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1580,10 +1606,10 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="27"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1602,10 +1628,10 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="27"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1613,7 +1639,7 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" ref="B22:B37" si="3">E26</f>
-        <v>-2.1100000000000001E-5</v>
+        <v>-2.1100000000000001E-6</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>56</v>
@@ -1624,10 +1650,10 @@
       <c r="E22" s="4">
         <v>-0.82</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="27"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1637,15 +1663,15 @@
         <f t="shared" si="3"/>
         <v>-3.4799999999999998E-2</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="27"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1664,10 +1690,10 @@
       <c r="E24" s="4">
         <v>40000</v>
       </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -1701,8 +1727,8 @@
       <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="4">
-        <v>-2.1100000000000001E-5</v>
+      <c r="E26" s="18">
+        <v>-2.1100000000000001E-6</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,11 +2003,11 @@
         <f t="shared" si="4"/>
         <v>-0.63500000000000001</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -2257,7 +2283,7 @@
         <v>131</v>
       </c>
       <c r="B58" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>132</v>
@@ -2274,7 +2300,7 @@
         <v>133</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,63 +2318,63 @@
       <c r="B61" s="1">
         <v>0</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="27"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="27"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="27"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="27"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
